--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/8/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/8/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2025</t>
   </si>
 </sst>
 </file>
@@ -52,7 +43,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -123,7 +114,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,7 +244,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,8 +276,8 @@
       <c r="B2" s="0" t="n">
         <v>5541998217975</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="n">
+        <v>45899</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,8 +287,8 @@
       <c r="B3" s="0" t="n">
         <v>5541998217975</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="C3" s="1" t="n">
+        <v>45889</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,8 +298,8 @@
       <c r="B4" s="0" t="n">
         <v>5541998217975</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="C4" s="1" t="n">
+        <v>45879</v>
       </c>
     </row>
   </sheetData>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
   </si>
 </sst>
 </file>
@@ -50,6 +53,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,12 +113,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,65 +249,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>5541998217975</v>
-      </c>
-      <c r="C2" s="1" t="n">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5541998217975</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45899</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>5541998217975</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5541998217975</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45889</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5541998217975</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5541998217975</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45879</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5541998217975</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5541998217975</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45870</v>
       </c>
     </row>
   </sheetData>
@@ -307,8 +346,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>